--- a/results/missing_sdf_pairs.xlsx
+++ b/results/missing_sdf_pairs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,10 +291,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,11 +327,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +616,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,7 +628,7 @@
     <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.5" customWidth="1"/>
+    <col min="9" max="9" width="133.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" hidden="1" customWidth="1"/>
@@ -1974,59 +1985,59 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>65</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>64</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>34</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>97</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>64</v>
       </c>
-      <c r="M26" t="s">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="M26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="2" t="s">
         <v>85</v>
       </c>
     </row>

--- a/results/missing_sdf_pairs.xlsx
+++ b/results/missing_sdf_pairs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="13500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="88">
   <si>
     <t>QualitasCorpus-20130901r/compressed_src/jgrapht-0.8.1/src/org/jgrapht/experimental/touchgraph/TouchgraphConverter.java</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Filtered out from the results since it is an error fragment generated by a bug in simian</t>
+  </si>
+  <si>
+    <t>ok-pairs</t>
   </si>
 </sst>
 </file>
@@ -613,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,21 +631,23 @@
     <col min="2" max="2" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="133.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="2.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="133.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.1640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -652,8 +660,11 @@
       <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -666,50 +677,53 @@
       <c r="D2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>85</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>110</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
       <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -722,50 +736,53 @@
       <c r="D3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>78</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>103</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
-        <v>1</v>
-      </c>
       <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>2</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -778,50 +795,53 @@
       <c r="D4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
         <v>69</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>15</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>33</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>1</v>
-      </c>
       <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>2</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -834,50 +854,53 @@
       <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
         <v>70</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5">
         <v>200</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>209</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
-        <v>1</v>
-      </c>
       <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>2</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -890,50 +913,53 @@
       <c r="D6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
         <v>71</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>28</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>55</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1644</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1671</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>28</v>
       </c>
-      <c r="M6" t="s">
-        <v>1</v>
-      </c>
       <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
         <v>2</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -946,50 +972,53 @@
       <c r="D7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>45</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>52</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>8</v>
       </c>
-      <c r="M7" t="s">
-        <v>1</v>
-      </c>
       <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
         <v>2</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1002,50 +1031,53 @@
       <c r="D8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
         <v>72</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>43</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>52</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>10</v>
       </c>
-      <c r="M8" t="s">
-        <v>1</v>
-      </c>
       <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
         <v>2</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1058,50 +1090,53 @@
       <c r="D9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>73</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>14</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>83</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>70</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>127</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>195</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>69</v>
       </c>
-      <c r="M9" t="s">
-        <v>1</v>
-      </c>
       <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
         <v>18</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1114,50 +1149,53 @@
       <c r="D10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
         <v>74</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>377</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>395</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>19</v>
       </c>
-      <c r="M10" t="s">
-        <v>1</v>
-      </c>
       <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
         <v>2</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1170,50 +1208,53 @@
       <c r="D11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>23</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>49</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>27</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>399</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>425</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>27</v>
       </c>
-      <c r="M11" t="s">
-        <v>1</v>
-      </c>
       <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
         <v>23</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1226,50 +1267,53 @@
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>185</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>196</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>24</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>181</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>192</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>12</v>
       </c>
-      <c r="M12" t="s">
-        <v>1</v>
-      </c>
       <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
         <v>25</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1282,50 +1326,53 @@
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>75</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>498</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>519</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>22</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>24</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>436</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>457</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>22</v>
       </c>
-      <c r="M13" t="s">
-        <v>1</v>
-      </c>
       <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
         <v>27</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1338,50 +1385,53 @@
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>145</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>168</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>24</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>29</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>164</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>186</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>23</v>
       </c>
-      <c r="M14" t="s">
-        <v>1</v>
-      </c>
       <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
         <v>18</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1394,50 +1444,53 @@
       <c r="D15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
         <v>77</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>124</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>136</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>32</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1039</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1051</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>13</v>
       </c>
-      <c r="M15" t="s">
-        <v>1</v>
-      </c>
       <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
         <v>18</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1450,50 +1503,53 @@
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>75</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>208</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>233</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>26</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>24</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>204</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>229</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>26</v>
       </c>
-      <c r="M16" t="s">
-        <v>1</v>
-      </c>
       <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
         <v>27</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1506,50 +1562,53 @@
       <c r="D17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
         <v>77</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>124</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>136</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>13</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>32</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1238</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1250</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>13</v>
       </c>
-      <c r="M17" t="s">
-        <v>1</v>
-      </c>
       <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
         <v>18</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1562,50 +1621,53 @@
       <c r="D18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
         <v>77</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>115</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>141</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>27</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>32</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1029</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1056</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>28</v>
       </c>
-      <c r="M18" t="s">
-        <v>1</v>
-      </c>
       <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
         <v>2</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1618,50 +1680,53 @@
       <c r="D19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
         <v>77</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>199</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>237</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>39</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>32</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1116</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1155</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>40</v>
       </c>
-      <c r="M19" t="s">
-        <v>1</v>
-      </c>
       <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
         <v>2</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1674,47 +1739,50 @@
       <c r="D20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
         <v>77</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>278</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>286</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>9</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>36</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1120</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1129</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>10</v>
       </c>
-      <c r="M20" t="s">
-        <v>1</v>
-      </c>
       <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
         <v>37</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1727,47 +1795,50 @@
       <c r="D21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
         <v>77</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>278</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>286</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>9</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>32</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1189</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1198</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>10</v>
       </c>
-      <c r="M21" t="s">
-        <v>1</v>
-      </c>
       <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
         <v>37</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1780,47 +1851,50 @@
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>78</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>70</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>80</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>11</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>40</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>139</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>149</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>11</v>
       </c>
-      <c r="M22" t="s">
-        <v>1</v>
-      </c>
       <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
         <v>27</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
         <v>41</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1833,47 +1907,50 @@
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>75</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>109</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>114</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>6</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>24</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>99</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>104</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>6</v>
       </c>
-      <c r="M23" t="s">
-        <v>1</v>
-      </c>
       <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
         <v>27</v>
       </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
         <v>42</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1886,50 +1963,53 @@
       <c r="D24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
         <v>79</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>14</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
         <v>43</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>80</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>93</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>14</v>
       </c>
-      <c r="M24" t="s">
-        <v>1</v>
-      </c>
       <c r="N24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
         <v>2</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
         <v>44</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1942,50 +2022,53 @@
       <c r="D25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
         <v>79</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
       <c r="G25">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>14</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
         <v>45</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>69</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>82</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>14</v>
       </c>
-      <c r="M25" t="s">
-        <v>1</v>
-      </c>
       <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
         <v>2</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
         <v>44</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>4</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
@@ -1998,50 +2081,56 @@
       <c r="D26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>65</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>64</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>97</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>64</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="N26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="3">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="S26" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2054,50 +2143,53 @@
       <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
         <v>81</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
       <c r="G27">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
         <v>48</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>399</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>414</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>16</v>
       </c>
-      <c r="M27" t="s">
-        <v>1</v>
-      </c>
       <c r="N27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
         <v>2</v>
       </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
         <v>49</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2110,50 +2202,53 @@
       <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
         <v>78</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>92</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>100</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>9</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>50</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>44</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>52</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>9</v>
       </c>
-      <c r="M28" t="s">
-        <v>1</v>
-      </c>
       <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
         <v>37</v>
       </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>52</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2166,50 +2261,53 @@
       <c r="D29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
         <v>78</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>107</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>116</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>10</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>50</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>58</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>67</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>10</v>
       </c>
-      <c r="M29" t="s">
-        <v>1</v>
-      </c>
       <c r="N29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
         <v>18</v>
       </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>52</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2222,50 +2320,53 @@
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
         <v>78</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>119</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>142</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>24</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>50</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>68</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>91</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>24</v>
       </c>
-      <c r="M30" t="s">
-        <v>1</v>
-      </c>
       <c r="N30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
         <v>18</v>
       </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
         <v>53</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>52</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -2278,50 +2379,53 @@
       <c r="D31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
         <v>78</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>183</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>201</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>19</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>50</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>132</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>149</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>18</v>
       </c>
-      <c r="M31" t="s">
-        <v>1</v>
-      </c>
       <c r="N31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
         <v>18</v>
       </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
         <v>53</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>52</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2334,50 +2438,53 @@
       <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
         <v>78</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>224</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>238</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>15</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>50</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>154</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>168</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>15</v>
       </c>
-      <c r="M32" t="s">
-        <v>1</v>
-      </c>
       <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
         <v>18</v>
       </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
         <v>53</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>52</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2390,50 +2497,53 @@
       <c r="D33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
         <v>78</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>151</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>169</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>19</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>50</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>100</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>118</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>19</v>
       </c>
-      <c r="M33" t="s">
-        <v>1</v>
-      </c>
       <c r="N33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
         <v>18</v>
       </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
         <v>53</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>52</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -2446,50 +2556,53 @@
       <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
         <v>78</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>242</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>269</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>28</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>50</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>170</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>196</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>27</v>
       </c>
-      <c r="M34" t="s">
-        <v>1</v>
-      </c>
       <c r="N34" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
         <v>18</v>
       </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
         <v>53</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>52</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2502,50 +2615,53 @@
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>75</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>358</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>414</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>57</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>24</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>255</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>313</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>59</v>
       </c>
-      <c r="M35" t="s">
-        <v>1</v>
-      </c>
       <c r="N35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
         <v>18</v>
       </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
         <v>54</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>52</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2558,50 +2674,53 @@
       <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
         <v>75</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>152</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>233</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>82</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>24</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>148</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>229</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>82</v>
       </c>
-      <c r="M36" t="s">
-        <v>1</v>
-      </c>
       <c r="N36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
         <v>18</v>
       </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
         <v>55</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>52</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -2614,50 +2733,53 @@
       <c r="D37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
         <v>76</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>111</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>134</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>24</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>29</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>132</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>154</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>23</v>
       </c>
-      <c r="M37" t="s">
-        <v>1</v>
-      </c>
       <c r="N37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
         <v>18</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
         <v>56</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>31</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2670,47 +2792,50 @@
       <c r="D38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
         <v>82</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>6</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>16</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>11</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>57</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>60</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>71</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>12</v>
       </c>
-      <c r="M38" t="s">
-        <v>1</v>
-      </c>
       <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
         <v>27</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
         <v>58</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="S38" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2723,47 +2848,50 @@
       <c r="D39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" t="s">
         <v>83</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>26</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>43</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>18</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>59</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>139</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>156</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>18</v>
       </c>
-      <c r="M39" t="s">
-        <v>1</v>
-      </c>
       <c r="N39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
         <v>2</v>
       </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
         <v>60</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="S39" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -2776,47 +2904,50 @@
       <c r="D40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
         <v>83</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>26</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>43</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>18</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>61</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>74</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>91</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>18</v>
       </c>
-      <c r="M40" t="s">
-        <v>1</v>
-      </c>
       <c r="N40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
         <v>23</v>
       </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
         <v>60</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -2829,47 +2960,50 @@
       <c r="D41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
         <v>83</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>93</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>103</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>11</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>62</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>168</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>179</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>12</v>
       </c>
-      <c r="M41" t="s">
-        <v>1</v>
-      </c>
       <c r="N41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
         <v>23</v>
       </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
         <v>60</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="S41" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -2882,53 +3016,56 @@
       <c r="D42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>47</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>80</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>34</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>62</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>119</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>152</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>34</v>
       </c>
-      <c r="M42" t="s">
-        <v>1</v>
-      </c>
       <c r="N42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
         <v>23</v>
       </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s">
         <v>60</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>COUNTIF(A2:A42,"T")</f>
         <v>40</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B43:D43" si="0">COUNTIF(B2:B42,"T")</f>
+        <f t="shared" ref="B43:E43" si="0">COUNTIF(B2:B42,"T")</f>
         <v>0</v>
       </c>
       <c r="C43" s="1">
@@ -2938,6 +3075,10 @@
       <c r="D43" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
